--- a/tut05/output/0501EE29.xlsx
+++ b/tut05/output/0501EE29.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.73469387755102</v>
+        <v>6.73</v>
       </c>
       <c r="C6" t="n">
-        <v>6.931818181818182</v>
+        <v>6.93</v>
       </c>
       <c r="D6" t="n">
         <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.695652173913044</v>
+        <v>6.7</v>
       </c>
       <c r="F6" t="n">
-        <v>6.384615384615385</v>
+        <v>6.38</v>
       </c>
       <c r="G6" t="n">
         <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>6.72093023255814</v>
+        <v>6.72</v>
       </c>
       <c r="I6" t="n">
-        <v>4.947368421052632</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.73469387755102</v>
+        <v>6.73</v>
       </c>
       <c r="C8" t="n">
-        <v>6.827956989247312</v>
+        <v>6.83</v>
       </c>
       <c r="D8" t="n">
-        <v>7.050359712230216</v>
+        <v>7.05</v>
       </c>
       <c r="E8" t="n">
-        <v>6.962162162162162</v>
+        <v>6.96</v>
       </c>
       <c r="F8" t="n">
-        <v>6.861607142857143</v>
+        <v>6.86</v>
       </c>
       <c r="G8" t="n">
-        <v>6.715909090909091</v>
+        <v>6.72</v>
       </c>
       <c r="H8" t="n">
-        <v>6.716612377850163</v>
+        <v>6.72</v>
       </c>
       <c r="I8" t="n">
-        <v>6.521739130434782</v>
+        <v>6.52</v>
       </c>
     </row>
   </sheetData>
